--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>646868.4207897208</v>
+        <v>646868.4207897207</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.3994514375</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006068</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>184.6308886574542</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,55 +908,55 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>95.23425580603923</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>146.1932996118735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>24.43074352985881</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1233,7 +1233,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809496073036132</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F11" t="n">
         <v>241.0142888776591</v>
@@ -1388,7 +1388,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>146.1932996118735</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1470,7 +1470,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4655268502615</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>81.00537765493296</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1853,58 +1853,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="W17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.809496073036132</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>179.4424403754322</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>33.80371536444981</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>241.0142888776591</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.81301614990497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>71.22487620251606</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>80.53491459783135</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2412,7 +2412,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>48.57345760946045</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,31 +2597,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>21.18375537072436</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>83.75985190330361</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>51.9994567448078</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,73 +2789,73 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="C29" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>70.73885857389313</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>149.2992955570995</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3001,13 +3001,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,19 +3038,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>66.86520245624395</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>63.63782110757876</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
@@ -3241,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,26 +3263,26 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>189.725925203634</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.05241763862477</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,67 +3509,67 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R38" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>96.52468151912586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.809496073036132</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,10 +3819,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.6683215414929</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>149.3442691106105</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,31 +3974,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>52.42556848774752</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4059,10 +4059,10 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="E45" t="n">
-        <v>33.8379391061281</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4074,7 +4074,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4116,10 +4116,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>376.1934816808115</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>132.7447050367114</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X2" t="n">
-        <v>132.7447050367114</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y2" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4413,16 +4413,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>777.5613083818946</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>569.7098081763618</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>361.9495094114078</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I4" t="n">
         <v>136.0777814360265</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4604,13 +4604,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4656,7 +4656,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4683,13 +4683,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>867.860937524738</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>660.0094373192052</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>452.2491385542513</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D7" t="n">
         <v>136.0777814360265</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>366.1018663125844</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G8" t="n">
-        <v>366.1018663125844</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>533.6469426057913</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D9" t="n">
-        <v>533.6469426057913</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4911,22 +4911,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4945,19 +4945,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -5024,16 +5024,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="E11" t="n">
-        <v>962.2293816994886</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F11" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G11" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5097,37 +5097,37 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>816.3871559026832</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>667.4527462414319</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>508.2152912359765</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>361.6807332628614</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>222.9499078454769</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5218,13 +5218,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
         <v>19.28114311021272</v>
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>812.6742080953335</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>812.6742080953335</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>812.6742080953335</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5458,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C17" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D17" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>962.2293816994886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F17" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>962.2293816994886</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y17" t="n">
-        <v>962.2293816994886</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
         <v>964.0571555106362</v>
@@ -5622,22 +5622,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.2152912359765</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5698,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G20" t="n">
         <v>475.3318284112885</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>929.9119884758385</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="T20" t="n">
-        <v>752.9257720901863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y20" t="n">
-        <v>509.4769954460863</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>527.9820370414925</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C21" t="n">
-        <v>353.5290077603655</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D21" t="n">
-        <v>204.5945980991143</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>735.8335372470253</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W21" t="n">
-        <v>735.8335372470253</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X21" t="n">
-        <v>527.9820370414925</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y21" t="n">
-        <v>527.9820370414925</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>385.8949250843803</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C24" t="n">
-        <v>385.8949250843803</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="D24" t="n">
-        <v>385.8949250843803</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>353.6106250961269</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>207.0760671230118</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>68.34524170562733</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,22 +6069,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>554.1102621044483</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>756.2968567456824</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="C27" t="n">
-        <v>756.2968567456824</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="D27" t="n">
-        <v>607.3624470844311</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="E27" t="n">
-        <v>448.1249920789756</v>
+        <v>243.3720121938209</v>
       </c>
       <c r="F27" t="n">
-        <v>301.5904341058606</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
-        <v>162.8596086884761</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6306,19 +6306,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>248.2447175439888</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y27" t="n">
-        <v>756.2968567456824</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6400,34 +6400,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6500,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90.73453560909468</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6543,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>298.4948343740486</v>
+        <v>813.2497862610408</v>
       </c>
       <c r="W30" t="n">
-        <v>298.4948343740486</v>
+        <v>569.8010096169406</v>
       </c>
       <c r="X30" t="n">
-        <v>298.4948343740486</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y30" t="n">
-        <v>90.73453560909468</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>485.4562706347935</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="C33" t="n">
-        <v>485.4562706347935</v>
+        <v>242.7992254970609</v>
       </c>
       <c r="D33" t="n">
-        <v>485.4562706347935</v>
+        <v>242.7992254970609</v>
       </c>
       <c r="E33" t="n">
-        <v>417.9156620931329</v>
+        <v>83.56177049160542</v>
       </c>
       <c r="F33" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X33" t="n">
-        <v>485.4562706347935</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y33" t="n">
-        <v>485.4562706347935</v>
+        <v>417.2522547781879</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C35" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E35" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7050,16 +7050,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>544.1911885564859</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7135,10 +7135,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7260,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
         <v>542.809531908403</v>
@@ -7278,22 +7278,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V39" t="n">
-        <v>360.2295980564601</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W39" t="n">
-        <v>116.7808214123601</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>116.7808214123601</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
         <v>19.28114311021272</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
         <v>19.28114311021272</v>
@@ -7351,31 +7351,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>718.7806050553886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>718.7806050553886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>718.7806050553886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>718.7806050553886</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F41" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>962.2293816994886</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y41" t="n">
-        <v>962.2293816994886</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>168.215552771464</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>168.215552771464</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7497,7 +7497,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
         <v>542.809531908403</v>
@@ -7512,28 +7512,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>336.430889791532</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>336.430889791532</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>336.430889791532</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>336.430889791532</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>336.430889791532</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>452.8495312167552</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>452.8495312167552</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D45" t="n">
-        <v>452.8495312167552</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>418.6697947459187</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7728,49 +7728,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>660.701031422288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>452.8495312167552</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>452.8495312167552</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8304,10 +8304,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,16 +8769,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,16 +9015,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,10 +9252,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10203,13 +10203,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,10 +10908,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11376,16 +11376,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>252.9439654637738</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22592,13 +22592,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22674,25 +22674,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>67.06409450346541</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,7 +22723,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22744,7 +22744,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -22781,10 +22781,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22796,16 +22796,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22860,31 +22860,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22923,13 +22923,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>156.4607273548804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22945,7 +22945,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>131.0571773754</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>162.4565364694636</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>218.5474650704376</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,16 +23063,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23100,13 +23100,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>26.51519937644221</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>133.2143369255421</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,10 +23151,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23264,7 +23264,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>380.1208739992256</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F11" t="n">
         <v>165.8617568640524</v>
@@ -23276,7 +23276,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23337,7 +23337,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>26.51519937644221</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -23358,7 +23358,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23467,7 +23467,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>97.48006257801995</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>325.8706680867785</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>46.34990878792868</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23789,10 +23789,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23820,19 +23820,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23862,16 +23862,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>20.72228831938943</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,10 +23938,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23981,7 +23981,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>381.4990221506852</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>98.46051323810809</v>
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>126.0561017912447</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24048,13 +24048,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>86.42020425288489</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24166,10 +24166,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24178,7 +24178,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24251,16 +24251,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>77.1101658575696</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24300,7 +24300,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>63.66198662703601</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,7 +24345,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24452,10 +24452,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>306.5685030994106</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24519,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>61.30936049008027</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>60.23598749168866</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24640,13 +24640,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>101.9696404144226</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>83.50129159232577</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24889,13 +24889,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>180.4391552345834</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,19 +24926,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>160.0089112227261</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,22 +24996,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>90.77987799915699</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>81.43139128580512</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>162.9782053421103</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25290,16 +25290,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>61.96905795728563</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>176.6302781386796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,10 +25330,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,13 +25397,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25518,25 +25518,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>109.1580142581785</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25591,7 +25591,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25606,7 +25606,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25637,7 +25637,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
@@ -25646,10 +25646,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>8.181203141508671</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,10 +25707,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>23.04017744682287</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>76.59711297036429</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25831,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,16 +25877,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>236.4659043839653</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>156.5945010984978</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25947,10 +25947,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>95.56758059204338</v>
       </c>
       <c r="E45" t="n">
-        <v>123.8071413492728</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25962,7 +25962,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26004,10 +26004,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26041,7 +26041,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26071,7 +26071,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>465249.8830877308</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>465249.8830877311</v>
+        <v>465249.8830877309</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>465249.8830877309</v>
+        <v>465249.8830877311</v>
       </c>
     </row>
     <row r="14">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
         <v>179.5324977039669</v>
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12917.76202108066</v>
+        <v>-12917.76202108072</v>
       </c>
       <c r="C6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046704</v>
       </c>
       <c r="D6" t="n">
-        <v>67851.66951046707</v>
+        <v>67851.66951046704</v>
       </c>
       <c r="E6" t="n">
+        <v>101479.269510467</v>
+      </c>
+      <c r="F6" t="n">
         <v>101479.2695104671</v>
       </c>
-      <c r="F6" t="n">
-        <v>101479.269510467</v>
-      </c>
       <c r="G6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="H6" t="n">
         <v>101479.2695104671</v>
       </c>
       <c r="I6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="J6" t="n">
-        <v>38419.32691136085</v>
+        <v>38419.3269113608</v>
       </c>
       <c r="K6" t="n">
         <v>101479.269510467</v>
@@ -26558,10 +26558,10 @@
         <v>101479.269510467</v>
       </c>
       <c r="O6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
       <c r="P6" t="n">
-        <v>101479.269510467</v>
+        <v>101479.2695104671</v>
       </c>
     </row>
   </sheetData>
@@ -34781,7 +34781,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35024,10 +35024,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>169.9067907798016</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35185,7 +35185,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35653,7 +35653,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35735,16 +35735,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,10 +35972,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36923,13 +36923,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37628,10 +37628,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37789,7 +37789,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37865,10 +37865,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38114,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
